--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.27048243297979</v>
+        <v>2.536023666666666</v>
       </c>
       <c r="H2">
-        <v>2.27048243297979</v>
+        <v>7.608070999999999</v>
       </c>
       <c r="I2">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="J2">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.0463463404372</v>
+        <v>124.0518796666667</v>
       </c>
       <c r="N2">
-        <v>84.0463463404372</v>
+        <v>372.155639</v>
       </c>
       <c r="O2">
-        <v>0.2126775208939676</v>
+        <v>0.2841471011719914</v>
       </c>
       <c r="P2">
-        <v>0.2126775208939676</v>
+        <v>0.2841471011719915</v>
       </c>
       <c r="Q2">
-        <v>190.8257529220979</v>
+        <v>314.598502729152</v>
       </c>
       <c r="R2">
-        <v>190.8257529220979</v>
+        <v>2831.386524562368</v>
       </c>
       <c r="S2">
-        <v>0.005586982427310294</v>
+        <v>0.007263906663248682</v>
       </c>
       <c r="T2">
-        <v>0.005586982427310294</v>
+        <v>0.007263906663248685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.27048243297979</v>
+        <v>2.536023666666666</v>
       </c>
       <c r="H3">
-        <v>2.27048243297979</v>
+        <v>7.608070999999999</v>
       </c>
       <c r="I3">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="J3">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>216.73129976637</v>
+        <v>216.8516133333333</v>
       </c>
       <c r="N3">
-        <v>216.73129976637</v>
+        <v>650.55484</v>
       </c>
       <c r="O3">
-        <v>0.5484340193413235</v>
+        <v>0.4967095821418112</v>
       </c>
       <c r="P3">
-        <v>0.5484340193413235</v>
+        <v>0.4967095821418113</v>
       </c>
       <c r="Q3">
-        <v>492.08460879642</v>
+        <v>549.9408235681822</v>
       </c>
       <c r="R3">
-        <v>492.08460879642</v>
+        <v>4949.46741211364</v>
       </c>
       <c r="S3">
-        <v>0.01440721716013776</v>
+        <v>0.01269783161094244</v>
       </c>
       <c r="T3">
-        <v>0.01440721716013776</v>
+        <v>0.01269783161094244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.27048243297979</v>
+        <v>2.536023666666666</v>
       </c>
       <c r="H4">
-        <v>2.27048243297979</v>
+        <v>7.608070999999999</v>
       </c>
       <c r="I4">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="J4">
-        <v>0.02626973647156503</v>
+        <v>0.02556389501525096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>94.40443983794719</v>
+        <v>95.67277033333333</v>
       </c>
       <c r="N4">
-        <v>94.40443983794719</v>
+        <v>287.018311</v>
       </c>
       <c r="O4">
-        <v>0.2388884597647089</v>
+        <v>0.2191433166861973</v>
       </c>
       <c r="P4">
-        <v>0.2388884597647089</v>
+        <v>0.2191433166861973</v>
       </c>
       <c r="Q4">
-        <v>214.3436222473566</v>
+        <v>242.6284098208979</v>
       </c>
       <c r="R4">
-        <v>214.3436222473566</v>
+        <v>2183.655688388081</v>
       </c>
       <c r="S4">
-        <v>0.006275536884116968</v>
+        <v>0.005602156741059841</v>
       </c>
       <c r="T4">
-        <v>0.006275536884116968</v>
+        <v>0.005602156741059842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.9798555270723</v>
+        <v>75.11538433333334</v>
       </c>
       <c r="H5">
-        <v>72.9798555270723</v>
+        <v>225.346153</v>
       </c>
       <c r="I5">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834327</v>
       </c>
       <c r="J5">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834328</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.0463463404372</v>
+        <v>124.0518796666667</v>
       </c>
       <c r="N5">
-        <v>84.0463463404372</v>
+        <v>372.155639</v>
       </c>
       <c r="O5">
-        <v>0.2126775208939676</v>
+        <v>0.2841471011719914</v>
       </c>
       <c r="P5">
-        <v>0.2126775208939676</v>
+        <v>0.2841471011719915</v>
       </c>
       <c r="Q5">
-        <v>6133.690213503389</v>
+        <v>9318.204618434085</v>
       </c>
       <c r="R5">
-        <v>6133.690213503389</v>
+        <v>83863.84156590677</v>
       </c>
       <c r="S5">
-        <v>0.179581733139543</v>
+        <v>0.2151522274587287</v>
       </c>
       <c r="T5">
-        <v>0.179581733139543</v>
+        <v>0.2151522274587287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>72.9798555270723</v>
+        <v>75.11538433333334</v>
       </c>
       <c r="H6">
-        <v>72.9798555270723</v>
+        <v>225.346153</v>
       </c>
       <c r="I6">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834327</v>
       </c>
       <c r="J6">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834328</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>216.73129976637</v>
+        <v>216.8516133333333</v>
       </c>
       <c r="N6">
-        <v>216.73129976637</v>
+        <v>650.55484</v>
       </c>
       <c r="O6">
-        <v>0.5484340193413235</v>
+        <v>0.4967095821418112</v>
       </c>
       <c r="P6">
-        <v>0.5484340193413235</v>
+        <v>0.4967095821418113</v>
       </c>
       <c r="Q6">
-        <v>15817.01894514428</v>
+        <v>16288.89227883673</v>
       </c>
       <c r="R6">
-        <v>15817.01894514428</v>
+        <v>146600.0305095305</v>
       </c>
       <c r="S6">
-        <v>0.4630895230112402</v>
+        <v>0.3761015775178322</v>
       </c>
       <c r="T6">
-        <v>0.4630895230112402</v>
+        <v>0.3761015775178322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>72.9798555270723</v>
+        <v>75.11538433333334</v>
       </c>
       <c r="H7">
-        <v>72.9798555270723</v>
+        <v>225.346153</v>
       </c>
       <c r="I7">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834327</v>
       </c>
       <c r="J7">
-        <v>0.8443851159477976</v>
+        <v>0.7571860721834328</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>94.40443983794719</v>
+        <v>95.67277033333333</v>
       </c>
       <c r="N7">
-        <v>94.40443983794719</v>
+        <v>287.018311</v>
       </c>
       <c r="O7">
-        <v>0.2388884597647089</v>
+        <v>0.2191433166861973</v>
       </c>
       <c r="P7">
-        <v>0.2388884597647089</v>
+        <v>0.2191433166861973</v>
       </c>
       <c r="Q7">
-        <v>6889.622380487575</v>
+        <v>7186.496913823065</v>
       </c>
       <c r="R7">
-        <v>6889.622380487575</v>
+        <v>64678.47222440758</v>
       </c>
       <c r="S7">
-        <v>0.2017138597970145</v>
+        <v>0.1659322672068718</v>
       </c>
       <c r="T7">
-        <v>0.2017138597970145</v>
+        <v>0.1659322672068719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.1792474846825</v>
+        <v>21.551928</v>
       </c>
       <c r="H8">
-        <v>11.1792474846825</v>
+        <v>64.655784</v>
       </c>
       <c r="I8">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="J8">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.0463463404372</v>
+        <v>124.0518796666667</v>
       </c>
       <c r="N8">
-        <v>84.0463463404372</v>
+        <v>372.155639</v>
       </c>
       <c r="O8">
-        <v>0.2126775208939676</v>
+        <v>0.2841471011719914</v>
       </c>
       <c r="P8">
-        <v>0.2126775208939676</v>
+        <v>0.2841471011719915</v>
       </c>
       <c r="Q8">
-        <v>939.5749059230868</v>
+        <v>2673.557178840664</v>
       </c>
       <c r="R8">
-        <v>939.5749059230868</v>
+        <v>24062.01460956597</v>
       </c>
       <c r="S8">
-        <v>0.02750880532711432</v>
+        <v>0.06173096705001407</v>
       </c>
       <c r="T8">
-        <v>0.02750880532711432</v>
+        <v>0.06173096705001409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.1792474846825</v>
+        <v>21.551928</v>
       </c>
       <c r="H9">
-        <v>11.1792474846825</v>
+        <v>64.655784</v>
       </c>
       <c r="I9">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="J9">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>216.73129976637</v>
+        <v>216.8516133333333</v>
       </c>
       <c r="N9">
-        <v>216.73129976637</v>
+        <v>650.55484</v>
       </c>
       <c r="O9">
-        <v>0.5484340193413235</v>
+        <v>0.4967095821418112</v>
       </c>
       <c r="P9">
-        <v>0.5484340193413235</v>
+        <v>0.4967095821418113</v>
       </c>
       <c r="Q9">
-        <v>2422.892837765161</v>
+        <v>4673.570357243841</v>
       </c>
       <c r="R9">
-        <v>2422.892837765161</v>
+        <v>42062.13321519456</v>
       </c>
       <c r="S9">
-        <v>0.07093727916994561</v>
+        <v>0.1079101730130366</v>
       </c>
       <c r="T9">
-        <v>0.07093727916994561</v>
+        <v>0.1079101730130366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1792474846825</v>
+        <v>21.551928</v>
       </c>
       <c r="H10">
-        <v>11.1792474846825</v>
+        <v>64.655784</v>
       </c>
       <c r="I10">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="J10">
-        <v>0.1293451475806373</v>
+        <v>0.2172500328013163</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>94.40443983794719</v>
+        <v>95.67277033333333</v>
       </c>
       <c r="N10">
-        <v>94.40443983794719</v>
+        <v>287.018311</v>
       </c>
       <c r="O10">
-        <v>0.2388884597647089</v>
+        <v>0.2191433166861973</v>
       </c>
       <c r="P10">
-        <v>0.2388884597647089</v>
+        <v>0.2191433166861973</v>
       </c>
       <c r="Q10">
-        <v>1055.370596601232</v>
+        <v>2061.932657784536</v>
       </c>
       <c r="R10">
-        <v>1055.370596601232</v>
+        <v>18557.39392006082</v>
       </c>
       <c r="S10">
-        <v>0.03089906308357742</v>
+        <v>0.04760889273826559</v>
       </c>
       <c r="T10">
-        <v>0.03089906308357742</v>
+        <v>0.0476088927382656</v>
       </c>
     </row>
   </sheetData>
